--- a/translate/Viral.xlsx
+++ b/translate/Viral.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,17 +453,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>定鞭藻病毒属</t>
+          <t>颗石藻病毒属</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Gammapapillomavirus</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>伽马乳头瘤病毒属</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Bracoviriform</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>茧蜂病毒属</t>
         </is>
